--- a/template/costp1.xlsx
+++ b/template/costp1.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587786EA-00F1-4FAB-AB04-770DAF5244BD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,13 +180,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I41"/>
+  <dimension ref="A3:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,9 +538,7 @@
       <c r="B3" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -565,21 +565,15 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -587,79 +581,53 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>1</v>
+      <c r="A38" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -668,28 +636,103 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="D41" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
         <v>5</v>
       </c>
     </row>
